--- a/docs/reference/ebe32.xlsx
+++ b/docs/reference/ebe32.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Velocet\OneDrive\git\iown-homecontrol\docs\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f961011552450a03/git/iown-homecontrol-master/iown-homecontrol/docs/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790D1A0F-5E43-4D76-A520-7637FF192E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{790D1A0F-5E43-4D76-A520-7637FF192E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B337A86F-80EA-468D-BF41-C79CC8CA1E14}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{309D4479-7BCD-43FF-A4D1-C62BB858C8E0}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15450" tabRatio="452" xr2:uid="{309D4479-7BCD-43FF-A4D1-C62BB858C8E0}"/>
   </bookViews>
   <sheets>
     <sheet name="32ede" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'32ede'!$A$1:$P$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1856,7 +1855,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DE0BE00-5787-4FF1-8645-5994AE80F6E3}" name="_32ede" displayName="_32ede" ref="A1:P179" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P179" xr:uid="{0DE0BE00-5787-4FF1-8645-5994AE80F6E3}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{CDEC78E5-1E16-4BF2-94D3-10DF5B272160}" uniqueName="1" name="keyname" queryTableFieldId="1" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{CB03E71A-D700-48FB-852B-5165A8D8F25F}" uniqueName="2" name="device obj.-instance" queryTableFieldId="2" dataDxfId="14"/>
@@ -2178,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AA94AD-30C5-4630-A9E7-E252CAB7B0DE}">
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
